--- a/src1/dyn.2018_1221.xlsx
+++ b/src1/dyn.2018_1221.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="10470" tabRatio="264"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>日期：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,22 +46,6 @@
   </si>
   <si>
     <t>下周计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>充电仓规格</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -193,12 +177,56 @@
     <t>1.Type C边充边放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>初步了解了BC、PD充电现状，下载了相关BC/PD标准文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初查有 ST已经在 STM32 F0 单片机实现，google 也用 stm32 f0 实现，计划照抄，看哪个能正常工作，再在那基础上消化，吸收，改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载 ST相关程序，下载google 代码。看看里面是什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画了测试电路板。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试基本信号波形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过测试，买来的产品也是只有 500 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用简单电阻测试过，失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买来QC和PD充电器，再次测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助FPGA网表编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -437,12 +465,57 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -450,51 +523,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -503,46 +531,46 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -563,7 +591,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -637,6 +665,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -671,6 +700,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -846,17 +876,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23:L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
@@ -868,17 +898,17 @@
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
-      <c r="B2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="K3" s="7" t="s">
         <v>0</v>
       </c>
@@ -886,463 +916,582 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="4" spans="2:12" s="5" customFormat="1" ht="12">
+    <row r="4" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="50"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49" t="s">
+      <c r="J4" s="18"/>
+      <c r="K4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="50"/>
-    </row>
-    <row r="5" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B5" s="24" t="s">
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B5" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="42"/>
+    </row>
+    <row r="6" spans="2:12" s="5" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
-    </row>
-    <row r="6" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B6" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B7" s="49"/>
+      <c r="C7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
-    </row>
-    <row r="7" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B7" s="33"/>
-      <c r="C7" s="22" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="2:12" s="5" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-    </row>
-    <row r="8" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B8" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B9" s="47"/>
+      <c r="C9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="21"/>
-    </row>
-    <row r="9" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B9" s="31"/>
-      <c r="C9" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B10" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="21"/>
+    <row r="10" spans="2:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B11" s="34"/>
-      <c r="C11" s="22" t="s">
+    <row r="11" spans="2:12" s="5" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="50"/>
+      <c r="C11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="2:12" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="B12" s="50"/>
+      <c r="C12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="21"/>
-    </row>
-    <row r="12" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B12" s="34"/>
-      <c r="C12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="8"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
+      <c r="I12" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="22"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B13" s="33"/>
-      <c r="C13" s="22" t="s">
+    <row r="13" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B13" s="49"/>
+      <c r="C13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B14" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="21"/>
-    </row>
-    <row r="14" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B14" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
-    </row>
-    <row r="15" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
+    </row>
+    <row r="15" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B15" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B16" s="33"/>
+      <c r="C16" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B17" s="33"/>
+      <c r="C17" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B18" s="34"/>
+      <c r="C18" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B19" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B20" s="33"/>
+      <c r="C20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B21" s="33"/>
+      <c r="C21" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B22" s="34"/>
+      <c r="C22" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B23" s="29">
+        <v>3</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="31"/>
+    </row>
+    <row r="24" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
-    </row>
-    <row r="16" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B16" s="18"/>
-      <c r="C16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
-    </row>
-    <row r="17" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B17" s="18"/>
-      <c r="C17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16"/>
-    </row>
-    <row r="18" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B18" s="19"/>
-      <c r="C18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
-    </row>
-    <row r="19" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
-    </row>
-    <row r="20" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B20" s="18"/>
-      <c r="C20" s="15" t="s">
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="27"/>
+    </row>
+    <row r="25" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
-    </row>
-    <row r="21" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B21" s="18"/>
-      <c r="C21" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="16"/>
-    </row>
-    <row r="22" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B22" s="19"/>
-      <c r="C22" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="16"/>
-    </row>
-    <row r="23" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B23" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="43"/>
-    </row>
-    <row r="24" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="38"/>
-    </row>
-    <row r="25" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B25" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="38"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="38"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="27"/>
       <c r="K25" s="10"/>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" spans="2:12" s="5" customFormat="1" ht="12">
+    <row r="26" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B26" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="38"/>
+        <v>13</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="27"/>
       <c r="E26" s="35"/>
       <c r="F26" s="36"/>
       <c r="G26" s="35"/>
       <c r="H26" s="36"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
       <c r="K26" s="10"/>
       <c r="L26" s="11"/>
     </row>
-    <row r="27" spans="2:12" s="5" customFormat="1" ht="12">
+    <row r="27" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B27" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="38"/>
+        <v>14</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="27"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
       <c r="G27" s="12"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
       <c r="K27" s="10"/>
       <c r="L27" s="11"/>
     </row>
-    <row r="28" spans="2:12" s="5" customFormat="1" ht="12">
+    <row r="28" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B28" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="38"/>
+        <v>14</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="27"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
       <c r="G28" s="10"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="38"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
       <c r="K28" s="10"/>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="2:12" s="5" customFormat="1" ht="12">
-      <c r="B29" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-    </row>
-    <row r="30" spans="2:12" s="5" customFormat="1" ht="12" customHeight="1">
-      <c r="B30" s="46"/>
-      <c r="C30" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="46"/>
-      <c r="C31" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-    </row>
-    <row r="32" spans="2:12">
+    <row r="29" spans="2:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B29" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+    </row>
+    <row r="30" spans="2:12" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="38"/>
+      <c r="C30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B31" s="38"/>
+      <c r="C31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="119">
+  <mergeCells count="121">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="C31:D31"/>
@@ -1367,101 +1516,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0.01" top="0.45" bottom="0.46" header="0.34" footer="0.31"/>
@@ -1471,14 +1525,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
